--- a/data.xlsx
+++ b/data.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\NEELAM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Coding\combine learning\python Lkg\whether\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF7337FA-60E5-47B7-9392-3FD39CC37B1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A7432E56-DD39-47B0-B710-50383665F7F4}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10050" windowHeight="4635"/>
   </bookViews>
   <sheets>
     <sheet name="data (2)" sheetId="3" r:id="rId1"/>
@@ -21,7 +20,7 @@
     <definedName name="ExternalData_1" localSheetId="1" hidden="1">data!$A$1:$D$81</definedName>
     <definedName name="ExternalData_2" localSheetId="0" hidden="1">'data (2)'!$A$1:$D$111</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,11 +30,11 @@
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{3511E8FF-7F0B-40F2-B701-C0C30DD82060}" keepAlive="1" name="Query - data" description="Connection to the 'data' query in the workbook." type="5" refreshedVersion="8" background="1" saveData="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <connection id="1" keepAlive="1" name="Query - data" description="Connection to the 'data' query in the workbook." type="5" refreshedVersion="8" background="1" saveData="1">
     <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=data;Extended Properties=&quot;&quot;" command="SELECT * FROM [data]"/>
   </connection>
-  <connection id="2" xr16:uid="{DC0AFDD8-AA7B-49A6-AA66-894EB2D953F2}" keepAlive="1" name="Query - data (2)" description="Connection to the 'data (2)' query in the workbook." type="5" refreshedVersion="8" background="1" saveData="1">
+  <connection id="2" keepAlive="1" name="Query - data (2)" description="Connection to the 'data (2)' query in the workbook." type="5" refreshedVersion="8" background="1" saveData="1">
     <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=&quot;data (2)&quot;;Extended Properties=&quot;&quot;" command="SELECT * FROM [data (2)]"/>
   </connection>
 </connections>
@@ -74,7 +73,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -139,7 +138,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_2" connectionId="2" xr16:uid="{1F47D324-2688-4132-85BE-BE0CD1CB740E}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_2" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="5">
     <queryTableFields count="4">
       <queryTableField id="1" name="Date" tableColumnId="1"/>
@@ -152,7 +151,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_1" connectionId="1" xr16:uid="{EC941D40-B508-4E67-A52F-B9224FFA99E2}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_1" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="5">
     <queryTableFields count="4">
       <queryTableField id="1" name="Date" tableColumnId="1"/>
@@ -165,26 +164,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{231C697B-9406-406E-9408-1A198245547F}" name="data__2" displayName="data__2" ref="A1:D111" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:D111" xr:uid="{231C697B-9406-406E-9408-1A198245547F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="data__2" displayName="data__2" ref="A1:D111" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:D111"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{CFC8C1A3-8473-4CE4-B10D-746F74A57591}" uniqueName="1" name="Date" queryTableFieldId="1" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{DCEB027E-E0F4-4EFE-A8F7-59F52DA1231A}" uniqueName="2" name="Place" queryTableFieldId="2" dataDxfId="0"/>
-    <tableColumn id="3" xr3:uid="{7F5C1609-E8B3-4F28-A62F-BFB4E4354AB6}" uniqueName="3" name="Temperature_C" queryTableFieldId="3"/>
-    <tableColumn id="4" xr3:uid="{15CD3D13-311D-4C6A-9176-F1A93471754C}" uniqueName="4" name="Humidity_%" queryTableFieldId="4"/>
+    <tableColumn id="1" uniqueName="1" name="Date" queryTableFieldId="1" dataDxfId="3"/>
+    <tableColumn id="2" uniqueName="2" name="Place" queryTableFieldId="2" dataDxfId="2"/>
+    <tableColumn id="3" uniqueName="3" name="Temperature_C" queryTableFieldId="3"/>
+    <tableColumn id="4" uniqueName="4" name="Humidity_%" queryTableFieldId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2EBE0194-8771-48BF-952D-06CB9ED70B7A}" name="data" displayName="data" ref="A1:D81" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:D81" xr:uid="{2EBE0194-8771-48BF-952D-06CB9ED70B7A}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="data" displayName="data" ref="A1:D81" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:D81"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{EF89E8A4-C33D-4386-AC5C-9D26ED7C5ABD}" uniqueName="1" name="Date" queryTableFieldId="1" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{B4216E3F-6E45-4A98-859A-90CF65410F62}" uniqueName="2" name="Place" queryTableFieldId="2" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{F6152FAD-CC13-4645-97C3-0386AB035761}" uniqueName="3" name="Temperature_C" queryTableFieldId="3"/>
-    <tableColumn id="4" xr3:uid="{12111DA0-E980-4F0E-9345-315F8C521BFC}" uniqueName="4" name="Humidity_%" queryTableFieldId="4"/>
+    <tableColumn id="1" uniqueName="1" name="Date" queryTableFieldId="1" dataDxfId="1"/>
+    <tableColumn id="2" uniqueName="2" name="Place" queryTableFieldId="2" dataDxfId="0"/>
+    <tableColumn id="3" uniqueName="3" name="Temperature_C" queryTableFieldId="3"/>
+    <tableColumn id="4" uniqueName="4" name="Humidity_%" queryTableFieldId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -486,20 +485,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EC090AC-A265-4F68-8009-898474E0ED92}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -513,7 +514,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>46006</v>
       </c>
@@ -527,7 +528,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>46006</v>
       </c>
@@ -541,7 +542,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>46006</v>
       </c>
@@ -555,7 +556,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>46006</v>
       </c>
@@ -569,7 +570,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>46006</v>
       </c>
@@ -583,7 +584,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>46007</v>
       </c>
@@ -597,7 +598,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>46007</v>
       </c>
@@ -608,7 +609,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>46007</v>
       </c>
@@ -622,7 +623,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>46007</v>
       </c>
@@ -636,7 +637,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>46007</v>
       </c>
@@ -650,7 +651,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>46008</v>
       </c>
@@ -664,7 +665,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>46008</v>
       </c>
@@ -678,7 +679,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>46008</v>
       </c>
@@ -692,7 +693,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>46008</v>
       </c>
@@ -706,7 +707,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>46008</v>
       </c>
@@ -720,7 +721,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>46009</v>
       </c>
@@ -734,7 +735,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>46009</v>
       </c>
@@ -748,7 +749,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>46009</v>
       </c>
@@ -762,7 +763,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>46009</v>
       </c>
@@ -776,7 +777,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>46009</v>
       </c>
@@ -790,7 +791,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>46010</v>
       </c>
@@ -804,7 +805,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>46010</v>
       </c>
@@ -818,7 +819,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>46010</v>
       </c>
@@ -832,7 +833,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>46010</v>
       </c>
@@ -846,7 +847,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>46010</v>
       </c>
@@ -860,7 +861,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>46011</v>
       </c>
@@ -874,7 +875,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>46011</v>
       </c>
@@ -888,7 +889,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>46011</v>
       </c>
@@ -902,7 +903,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>46011</v>
       </c>
@@ -916,7 +917,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>46011</v>
       </c>
@@ -930,7 +931,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>46012</v>
       </c>
@@ -944,7 +945,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>46012</v>
       </c>
@@ -958,7 +959,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>46012</v>
       </c>
@@ -972,7 +973,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>46012</v>
       </c>
@@ -986,7 +987,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>46012</v>
       </c>
@@ -1000,7 +1001,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>46010</v>
       </c>
@@ -1014,7 +1015,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>46010</v>
       </c>
@@ -1028,7 +1029,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>46010</v>
       </c>
@@ -1042,7 +1043,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>46010</v>
       </c>
@@ -1056,7 +1057,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>46010</v>
       </c>
@@ -1070,7 +1071,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>46011</v>
       </c>
@@ -1084,7 +1085,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>46011</v>
       </c>
@@ -1098,7 +1099,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>46011</v>
       </c>
@@ -1112,7 +1113,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>46011</v>
       </c>
@@ -1126,7 +1127,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>46011</v>
       </c>
@@ -1140,7 +1141,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>46012</v>
       </c>
@@ -1154,7 +1155,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>46012</v>
       </c>
@@ -1168,7 +1169,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>46012</v>
       </c>
@@ -1182,7 +1183,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>46012</v>
       </c>
@@ -1196,7 +1197,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>46012</v>
       </c>
@@ -1210,7 +1211,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>46013</v>
       </c>
@@ -1224,7 +1225,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>46013</v>
       </c>
@@ -1238,7 +1239,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>46013</v>
       </c>
@@ -1252,7 +1253,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>46013</v>
       </c>
@@ -1266,7 +1267,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>46013</v>
       </c>
@@ -1280,7 +1281,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>46014</v>
       </c>
@@ -1294,7 +1295,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>46014</v>
       </c>
@@ -1308,7 +1309,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>46014</v>
       </c>
@@ -1322,7 +1323,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>46014</v>
       </c>
@@ -1336,7 +1337,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>46014</v>
       </c>
@@ -1350,7 +1351,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>46015</v>
       </c>
@@ -1364,7 +1365,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>46015</v>
       </c>
@@ -1378,7 +1379,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>46015</v>
       </c>
@@ -1392,7 +1393,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>46015</v>
       </c>
@@ -1406,7 +1407,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>46015</v>
       </c>
@@ -1420,7 +1421,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>46016</v>
       </c>
@@ -1434,7 +1435,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>46016</v>
       </c>
@@ -1448,7 +1449,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>46016</v>
       </c>
@@ -1462,7 +1463,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>46016</v>
       </c>
@@ -1476,7 +1477,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>46016</v>
       </c>
@@ -1490,7 +1491,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>45683</v>
       </c>
@@ -1504,7 +1505,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>45683</v>
       </c>
@@ -1518,7 +1519,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>45683</v>
       </c>
@@ -1532,7 +1533,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>45683</v>
       </c>
@@ -1546,7 +1547,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>45683</v>
       </c>
@@ -1560,7 +1561,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>45684</v>
       </c>
@@ -1574,7 +1575,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>45684</v>
       </c>
@@ -1588,7 +1589,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>45684</v>
       </c>
@@ -1602,7 +1603,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>45684</v>
       </c>
@@ -1616,7 +1617,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>45684</v>
       </c>
@@ -1630,7 +1631,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>46019</v>
       </c>
@@ -1644,7 +1645,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>46019</v>
       </c>
@@ -1658,7 +1659,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>46019</v>
       </c>
@@ -1672,7 +1673,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>46019</v>
       </c>
@@ -1683,7 +1684,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>46019</v>
       </c>
@@ -1697,7 +1698,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>45686</v>
       </c>
@@ -1711,7 +1712,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>45686</v>
       </c>
@@ -1725,7 +1726,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>45686</v>
       </c>
@@ -1739,7 +1740,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>45686</v>
       </c>
@@ -1753,7 +1754,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>45686</v>
       </c>
@@ -1767,7 +1768,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>45687</v>
       </c>
@@ -1781,7 +1782,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>45687</v>
       </c>
@@ -1795,7 +1796,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>45687</v>
       </c>
@@ -1809,7 +1810,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>45687</v>
       </c>
@@ -1823,7 +1824,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>45687</v>
       </c>
@@ -1837,7 +1838,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>45688</v>
       </c>
@@ -1851,7 +1852,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>45688</v>
       </c>
@@ -1865,7 +1866,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>45688</v>
       </c>
@@ -1879,7 +1880,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>45688</v>
       </c>
@@ -1893,7 +1894,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>45688</v>
       </c>
@@ -1907,7 +1908,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>45689</v>
       </c>
@@ -1921,7 +1922,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>45689</v>
       </c>
@@ -1935,7 +1936,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>45689</v>
       </c>
@@ -1949,7 +1950,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>45689</v>
       </c>
@@ -1963,7 +1964,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>45689</v>
       </c>
@@ -1977,7 +1978,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>45690</v>
       </c>
@@ -1991,7 +1992,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>45690</v>
       </c>
@@ -2005,7 +2006,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>45690</v>
       </c>
@@ -2019,7 +2020,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>45690</v>
       </c>
@@ -2033,7 +2034,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>45690</v>
       </c>
@@ -2056,22 +2057,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{049EF0AF-2ED4-4A7A-A0EC-B1F9EB6EC94B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2085,7 +2086,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>46006</v>
       </c>
@@ -2099,7 +2100,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>46006</v>
       </c>
@@ -2113,7 +2114,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>46006</v>
       </c>
@@ -2127,7 +2128,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>46006</v>
       </c>
@@ -2141,7 +2142,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>46006</v>
       </c>
@@ -2155,7 +2156,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>46007</v>
       </c>
@@ -2169,7 +2170,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>46007</v>
       </c>
@@ -2180,7 +2181,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>46007</v>
       </c>
@@ -2194,7 +2195,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>46007</v>
       </c>
@@ -2208,7 +2209,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>46007</v>
       </c>
@@ -2222,7 +2223,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>46008</v>
       </c>
@@ -2236,7 +2237,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>46008</v>
       </c>
@@ -2250,7 +2251,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>46008</v>
       </c>
@@ -2264,7 +2265,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>46008</v>
       </c>
@@ -2278,7 +2279,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>46008</v>
       </c>
@@ -2292,7 +2293,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>46009</v>
       </c>
@@ -2306,7 +2307,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>46009</v>
       </c>
@@ -2320,7 +2321,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>46009</v>
       </c>
@@ -2334,7 +2335,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>46009</v>
       </c>
@@ -2348,7 +2349,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>46009</v>
       </c>
@@ -2362,7 +2363,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>46010</v>
       </c>
@@ -2376,7 +2377,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>46010</v>
       </c>
@@ -2390,7 +2391,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>46010</v>
       </c>
@@ -2404,7 +2405,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>46010</v>
       </c>
@@ -2418,7 +2419,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>46010</v>
       </c>
@@ -2432,7 +2433,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>46011</v>
       </c>
@@ -2446,7 +2447,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>46011</v>
       </c>
@@ -2460,7 +2461,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>46011</v>
       </c>
@@ -2474,7 +2475,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>46011</v>
       </c>
@@ -2488,7 +2489,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>46011</v>
       </c>
@@ -2502,7 +2503,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>46012</v>
       </c>
@@ -2516,7 +2517,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>46012</v>
       </c>
@@ -2530,7 +2531,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>46012</v>
       </c>
@@ -2544,7 +2545,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>46012</v>
       </c>
@@ -2558,7 +2559,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>46012</v>
       </c>
@@ -2572,7 +2573,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>46016</v>
       </c>
@@ -2586,7 +2587,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>46016</v>
       </c>
@@ -2600,7 +2601,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>46016</v>
       </c>
@@ -2614,7 +2615,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>46016</v>
       </c>
@@ -2628,7 +2629,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>46016</v>
       </c>
@@ -2642,7 +2643,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>45683</v>
       </c>
@@ -2656,7 +2657,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>45683</v>
       </c>
@@ -2670,7 +2671,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>45683</v>
       </c>
@@ -2684,7 +2685,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>45683</v>
       </c>
@@ -2698,7 +2699,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>45683</v>
       </c>
@@ -2712,7 +2713,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>45684</v>
       </c>
@@ -2726,7 +2727,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>45684</v>
       </c>
@@ -2740,7 +2741,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>45684</v>
       </c>
@@ -2754,7 +2755,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>45684</v>
       </c>
@@ -2768,7 +2769,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>45684</v>
       </c>
@@ -2782,7 +2783,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>46019</v>
       </c>
@@ -2796,7 +2797,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>46019</v>
       </c>
@@ -2810,7 +2811,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>46019</v>
       </c>
@@ -2824,7 +2825,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>46019</v>
       </c>
@@ -2835,7 +2836,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>46019</v>
       </c>
@@ -2849,7 +2850,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>45686</v>
       </c>
@@ -2863,7 +2864,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>45686</v>
       </c>
@@ -2877,7 +2878,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>45686</v>
       </c>
@@ -2891,7 +2892,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>45686</v>
       </c>
@@ -2905,7 +2906,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>45686</v>
       </c>
@@ -2919,7 +2920,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>45687</v>
       </c>
@@ -2933,7 +2934,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>45687</v>
       </c>
@@ -2947,7 +2948,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>45687</v>
       </c>
@@ -2961,7 +2962,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>45687</v>
       </c>
@@ -2975,7 +2976,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>45687</v>
       </c>
@@ -2989,7 +2990,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>45688</v>
       </c>
@@ -3003,7 +3004,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>45688</v>
       </c>
@@ -3017,7 +3018,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>45688</v>
       </c>
@@ -3031,7 +3032,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>45688</v>
       </c>
@@ -3045,7 +3046,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>45688</v>
       </c>
@@ -3059,7 +3060,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>45689</v>
       </c>
@@ -3073,7 +3074,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>45689</v>
       </c>
@@ -3087,7 +3088,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>45689</v>
       </c>
@@ -3101,7 +3102,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>45689</v>
       </c>
@@ -3115,7 +3116,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>45689</v>
       </c>
@@ -3129,7 +3130,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>45690</v>
       </c>
@@ -3143,7 +3144,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>45690</v>
       </c>
@@ -3157,7 +3158,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>45690</v>
       </c>
@@ -3171,7 +3172,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>45690</v>
       </c>
@@ -3185,7 +3186,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>45690</v>
       </c>
@@ -3208,12 +3209,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D57DCA4-CFFC-42F2-B729-F2DE21A4FAF0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
